--- a/time_tables/full_time_undergraduate/lovs_4_kurs.xlsx
+++ b/time_tables/full_time_undergraduate/lovs_4_kurs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="100">
   <si>
     <t>Факультет летних олимпийских видов спорта</t>
   </si>
@@ -1015,12 +1015,6 @@
     </r>
   </si>
   <si>
-    <t>ауд.423
-Лекция
-Пропаганда и СО в сфере ФКиС
-(Кротова Е.Е.)</t>
-  </si>
-  <si>
     <t>23.01.
 30.01.
 06.02.</t>
@@ -1123,8 +1117,15 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Лекция
+    <t>ауд.10 ИМиСТ
+Лекция
+Пропаганда и СО в сфере ФКиС
+(Кротова Е.Е.)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ауд.119
+Лекция
 </t>
     </r>
     <r>
@@ -1136,8 +1137,87 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>Дисциплина по выбору
-ауд.409</t>
+      <t>Дисциплина по выбору</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+Адаптивная физическая рекреация
+(Рябчиков А.Ю.)
+</t>
+    </r>
+  </si>
+  <si>
+    <t>25.01.
+01.02.
+08.02.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Согласовано 
+Начальник УМЦ                   _____________________  М.А.Утеганова                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                            
+Составила специалист       _____________________ Н.А. Догонова                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                            </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="48"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>22.01. - ауд.421
+29.01., 05.02. - ауд.423</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="48"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+Лекция
+Пропаганда и СО в сфере ФКиС
+(Кротова Е.Е.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Лекция
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="36"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Дисциплина по выбору
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="36"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>24.01., 31.01. - ауд.409, 07.02. - ауд.119</t>
     </r>
     <r>
       <rPr>
@@ -1155,59 +1235,12 @@
 (к.с.н., доцент Оганян К.К.)</t>
     </r>
   </si>
-  <si>
-    <t>ауд.10 ИМиСТ
-Лекция
-Пропаганда и СО в сфере ФКиС
-(Кротова Е.Е.)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ауд.119
-Лекция
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="36"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Дисциплина по выбору</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-Адаптивная физическая рекреация
-(Рябчиков А.Ю.)
-</t>
-    </r>
-  </si>
-  <si>
-    <t>25.01.
-01.02.
-08.02.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Согласовано 
-Начальник УМЦ                   _____________________  М.А.Утеганова                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                            
-Составила специалист       _____________________ Н.А. Догонова                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                            </t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1396,6 +1429,23 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="48"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="36"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2142,52 +2192,76 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2198,30 +2272,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2582,72 +2632,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="158.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="101" t="s">
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="102"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="100"/>
       <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:29" ht="75.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="105"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="103"/>
       <c r="O2" s="7"/>
     </row>
     <row r="3" spans="1:29" ht="99" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="106" t="s">
+      <c r="D3" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="108"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="106"/>
       <c r="O3" s="9"/>
     </row>
     <row r="4" spans="1:29" ht="63" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="111" t="s">
+      <c r="C4" s="109" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="41" t="s">
@@ -2684,9 +2734,9 @@
       <c r="O4" s="9"/>
     </row>
     <row r="5" spans="1:29" s="12" customFormat="1" ht="149.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="110"/>
-      <c r="B5" s="110"/>
-      <c r="C5" s="112"/>
+      <c r="A5" s="108"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="110"/>
       <c r="D5" s="50" t="s">
         <v>29</v>
       </c>
@@ -2768,17 +2818,17 @@
       <c r="A7" s="70"/>
       <c r="B7" s="71"/>
       <c r="C7" s="71"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="113"/>
-      <c r="M7" s="113"/>
-      <c r="N7" s="113"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
       <c r="O7" s="22"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
@@ -2796,10 +2846,10 @@
       <c r="AC7" s="11"/>
     </row>
     <row r="8" spans="1:29" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="112" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="113" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="46" t="s">
@@ -2833,24 +2883,24 @@
       <c r="AC8" s="24"/>
     </row>
     <row r="9" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="98"/>
-      <c r="B9" s="99"/>
+      <c r="A9" s="112"/>
+      <c r="B9" s="113"/>
       <c r="C9" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="119" t="s">
+      <c r="D9" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="121"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="115"/>
+      <c r="N9" s="116"/>
       <c r="O9" s="9"/>
       <c r="P9" s="24"/>
       <c r="Q9" s="24"/>
@@ -2864,24 +2914,24 @@
       <c r="AC9" s="24"/>
     </row>
     <row r="10" spans="1:29" ht="377.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="98"/>
-      <c r="B10" s="99"/>
+      <c r="A10" s="112"/>
+      <c r="B10" s="113"/>
       <c r="C10" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="119" t="s">
+      <c r="D10" s="114" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="120"/>
-      <c r="M10" s="120"/>
-      <c r="N10" s="121"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="115"/>
+      <c r="L10" s="115"/>
+      <c r="M10" s="115"/>
+      <c r="N10" s="116"/>
       <c r="O10" s="2"/>
       <c r="P10" s="25"/>
       <c r="Q10" s="26"/>
@@ -2895,26 +2945,26 @@
       <c r="AC10" s="24"/>
     </row>
     <row r="11" spans="1:29" ht="292.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="98"/>
-      <c r="B11" s="99"/>
+      <c r="A11" s="112"/>
+      <c r="B11" s="113"/>
       <c r="C11" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="122" t="s">
+      <c r="D11" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="124"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="119"/>
       <c r="I11" s="57"/>
-      <c r="J11" s="122" t="s">
+      <c r="J11" s="117" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="123"/>
-      <c r="L11" s="123"/>
-      <c r="M11" s="123"/>
-      <c r="N11" s="124"/>
+      <c r="K11" s="118"/>
+      <c r="L11" s="118"/>
+      <c r="M11" s="118"/>
+      <c r="N11" s="119"/>
       <c r="O11" s="27"/>
       <c r="V11" s="24"/>
       <c r="W11" s="24"/>
@@ -2926,26 +2976,26 @@
       <c r="AC11" s="24"/>
     </row>
     <row r="12" spans="1:29" ht="305.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="98"/>
-      <c r="B12" s="99"/>
+      <c r="A12" s="112"/>
+      <c r="B12" s="113"/>
       <c r="C12" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="122" t="s">
+      <c r="D12" s="117" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="124"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="119"/>
       <c r="I12" s="55"/>
-      <c r="J12" s="122" t="s">
+      <c r="J12" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="K12" s="123"/>
-      <c r="L12" s="123"/>
-      <c r="M12" s="123"/>
-      <c r="N12" s="124"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="118"/>
+      <c r="M12" s="118"/>
+      <c r="N12" s="119"/>
       <c r="O12" s="9"/>
       <c r="P12" s="24"/>
       <c r="V12" s="24"/>
@@ -2984,10 +3034,10 @@
       <c r="AC13" s="24"/>
     </row>
     <row r="14" spans="1:29" ht="320.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="98" t="s">
+      <c r="A14" s="112" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="99" t="s">
+      <c r="B14" s="113" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="46" t="s">
@@ -3028,8 +3078,8 @@
       <c r="AC14" s="24"/>
     </row>
     <row r="15" spans="1:29" ht="363" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="98"/>
-      <c r="B15" s="99"/>
+      <c r="A15" s="112"/>
+      <c r="B15" s="113"/>
       <c r="C15" s="45" t="s">
         <v>10</v>
       </c>
@@ -3070,8 +3120,8 @@
       <c r="AC15" s="24"/>
     </row>
     <row r="16" spans="1:29" ht="319.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="98"/>
-      <c r="B16" s="99"/>
+      <c r="A16" s="112"/>
+      <c r="B16" s="113"/>
       <c r="C16" s="45" t="s">
         <v>11</v>
       </c>
@@ -3117,8 +3167,8 @@
       <c r="AC16" s="24"/>
     </row>
     <row r="17" spans="1:29" ht="298.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="98"/>
-      <c r="B17" s="99"/>
+      <c r="A17" s="112"/>
+      <c r="B17" s="113"/>
       <c r="C17" s="45" t="s">
         <v>12</v>
       </c>
@@ -3156,8 +3206,8 @@
       <c r="AC17" s="24"/>
     </row>
     <row r="18" spans="1:29" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="98"/>
-      <c r="B18" s="99"/>
+      <c r="A18" s="112"/>
+      <c r="B18" s="113"/>
       <c r="C18" s="47" t="s">
         <v>13</v>
       </c>
@@ -3220,28 +3270,28 @@
       <c r="AC19" s="24"/>
     </row>
     <row r="20" spans="1:29" ht="325.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="98" t="s">
+      <c r="A20" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="99" t="s">
+      <c r="B20" s="113" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="119" t="s">
+      <c r="D20" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="120"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="120"/>
-      <c r="J20" s="120"/>
-      <c r="K20" s="120"/>
-      <c r="L20" s="120"/>
-      <c r="M20" s="120"/>
-      <c r="N20" s="121"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="115"/>
+      <c r="L20" s="115"/>
+      <c r="M20" s="115"/>
+      <c r="N20" s="116"/>
       <c r="O20" s="29"/>
       <c r="P20" s="24"/>
       <c r="U20" s="24"/>
@@ -3255,24 +3305,24 @@
       <c r="AC20" s="24"/>
     </row>
     <row r="21" spans="1:29" ht="390.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="98"/>
-      <c r="B21" s="99"/>
+      <c r="A21" s="112"/>
+      <c r="B21" s="113"/>
       <c r="C21" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="119" t="s">
+      <c r="D21" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="120"/>
-      <c r="J21" s="120"/>
-      <c r="K21" s="120"/>
-      <c r="L21" s="120"/>
-      <c r="M21" s="120"/>
-      <c r="N21" s="121"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="115"/>
+      <c r="L21" s="115"/>
+      <c r="M21" s="115"/>
+      <c r="N21" s="116"/>
       <c r="O21" s="29"/>
       <c r="U21" s="24"/>
       <c r="V21" s="24"/>
@@ -3285,26 +3335,26 @@
       <c r="AC21" s="24"/>
     </row>
     <row r="22" spans="1:29" ht="288.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="98"/>
-      <c r="B22" s="99"/>
+      <c r="A22" s="112"/>
+      <c r="B22" s="113"/>
       <c r="C22" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="122" t="s">
+      <c r="D22" s="117" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="123"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
-      <c r="H22" s="124"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="119"/>
       <c r="I22" s="58"/>
-      <c r="J22" s="119" t="s">
+      <c r="J22" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="K22" s="120"/>
-      <c r="L22" s="120"/>
-      <c r="M22" s="120"/>
-      <c r="N22" s="120"/>
+      <c r="K22" s="115"/>
+      <c r="L22" s="115"/>
+      <c r="M22" s="115"/>
+      <c r="N22" s="115"/>
       <c r="O22" s="29"/>
       <c r="P22" s="25"/>
       <c r="Q22" s="26"/>
@@ -3319,18 +3369,18 @@
       <c r="AC22" s="24"/>
     </row>
     <row r="23" spans="1:29" ht="298.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="98"/>
-      <c r="B23" s="99"/>
+      <c r="A23" s="112"/>
+      <c r="B23" s="113"/>
       <c r="C23" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="119" t="s">
+      <c r="D23" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="120"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="120"/>
-      <c r="H23" s="120"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
       <c r="I23" s="58"/>
       <c r="J23" s="40"/>
       <c r="K23" s="40"/>
@@ -3353,8 +3403,8 @@
       <c r="AC23" s="24"/>
     </row>
     <row r="24" spans="1:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="98"/>
-      <c r="B24" s="99"/>
+      <c r="A24" s="112"/>
+      <c r="B24" s="113"/>
       <c r="C24" s="47" t="s">
         <v>13</v>
       </c>
@@ -3417,10 +3467,10 @@
       <c r="AC25" s="24"/>
     </row>
     <row r="26" spans="1:29" s="12" customFormat="1" ht="373.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="98" t="s">
+      <c r="A26" s="112" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="117" t="s">
+      <c r="B26" s="120" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="46" t="s">
@@ -3460,8 +3510,8 @@
       <c r="AC26" s="11"/>
     </row>
     <row r="27" spans="1:29" ht="340.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="98"/>
-      <c r="B27" s="117"/>
+      <c r="A27" s="112"/>
+      <c r="B27" s="120"/>
       <c r="C27" s="45" t="s">
         <v>10</v>
       </c>
@@ -3496,8 +3546,8 @@
       <c r="AC27" s="24"/>
     </row>
     <row r="28" spans="1:29" ht="376.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="98"/>
-      <c r="B28" s="117"/>
+      <c r="A28" s="112"/>
+      <c r="B28" s="120"/>
       <c r="C28" s="45" t="s">
         <v>11</v>
       </c>
@@ -3530,8 +3580,8 @@
       <c r="AC28" s="24"/>
     </row>
     <row r="29" spans="1:29" ht="330" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="98"/>
-      <c r="B29" s="117"/>
+      <c r="A29" s="112"/>
+      <c r="B29" s="120"/>
       <c r="C29" s="45" t="s">
         <v>12</v>
       </c>
@@ -3568,8 +3618,8 @@
       <c r="AC29" s="24"/>
     </row>
     <row r="30" spans="1:29" ht="310.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="98"/>
-      <c r="B30" s="117"/>
+      <c r="A30" s="112"/>
+      <c r="B30" s="120"/>
       <c r="C30" s="47" t="s">
         <v>13</v>
       </c>
@@ -3633,28 +3683,28 @@
       <c r="AC31" s="24"/>
     </row>
     <row r="32" spans="1:29" ht="369" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="98" t="s">
+      <c r="A32" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="99" t="s">
+      <c r="B32" s="113" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="119" t="s">
+      <c r="D32" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="120"/>
-      <c r="F32" s="120"/>
-      <c r="G32" s="120"/>
-      <c r="H32" s="120"/>
-      <c r="I32" s="120"/>
-      <c r="J32" s="120"/>
-      <c r="K32" s="120"/>
-      <c r="L32" s="120"/>
-      <c r="M32" s="120"/>
-      <c r="N32" s="121"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="115"/>
+      <c r="H32" s="115"/>
+      <c r="I32" s="115"/>
+      <c r="J32" s="115"/>
+      <c r="K32" s="115"/>
+      <c r="L32" s="115"/>
+      <c r="M32" s="115"/>
+      <c r="N32" s="116"/>
       <c r="O32" s="31"/>
       <c r="P32" s="24"/>
       <c r="R32" s="24"/>
@@ -3671,24 +3721,24 @@
       <c r="AC32" s="24"/>
     </row>
     <row r="33" spans="1:62" ht="404.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="98"/>
-      <c r="B33" s="99"/>
+      <c r="A33" s="112"/>
+      <c r="B33" s="113"/>
       <c r="C33" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="119" t="s">
+      <c r="D33" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="E33" s="120"/>
-      <c r="F33" s="120"/>
-      <c r="G33" s="120"/>
-      <c r="H33" s="120"/>
-      <c r="I33" s="120"/>
-      <c r="J33" s="120"/>
-      <c r="K33" s="120"/>
-      <c r="L33" s="120"/>
-      <c r="M33" s="120"/>
-      <c r="N33" s="121"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="115"/>
+      <c r="I33" s="115"/>
+      <c r="J33" s="115"/>
+      <c r="K33" s="115"/>
+      <c r="L33" s="115"/>
+      <c r="M33" s="115"/>
+      <c r="N33" s="116"/>
       <c r="O33" s="31"/>
       <c r="P33" s="24"/>
       <c r="V33" s="24"/>
@@ -3701,26 +3751,26 @@
       <c r="AC33" s="24"/>
     </row>
     <row r="34" spans="1:62" ht="297.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="98"/>
-      <c r="B34" s="99"/>
+      <c r="A34" s="112"/>
+      <c r="B34" s="113"/>
       <c r="C34" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="119" t="s">
+      <c r="D34" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="E34" s="120"/>
-      <c r="F34" s="120"/>
-      <c r="G34" s="120"/>
-      <c r="H34" s="120"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="115"/>
       <c r="I34" s="56"/>
-      <c r="J34" s="122" t="s">
+      <c r="J34" s="117" t="s">
         <v>63</v>
       </c>
-      <c r="K34" s="123"/>
-      <c r="L34" s="123"/>
-      <c r="M34" s="123"/>
-      <c r="N34" s="124"/>
+      <c r="K34" s="118"/>
+      <c r="L34" s="118"/>
+      <c r="M34" s="118"/>
+      <c r="N34" s="119"/>
       <c r="O34" s="31"/>
       <c r="P34" s="24"/>
       <c r="U34" s="24"/>
@@ -3734,8 +3784,8 @@
       <c r="AC34" s="24"/>
     </row>
     <row r="35" spans="1:62" ht="303.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="98"/>
-      <c r="B35" s="99"/>
+      <c r="A35" s="112"/>
+      <c r="B35" s="113"/>
       <c r="C35" s="45" t="s">
         <v>12</v>
       </c>
@@ -3745,13 +3795,13 @@
       <c r="G35" s="72"/>
       <c r="H35" s="72"/>
       <c r="I35" s="56"/>
-      <c r="J35" s="119" t="s">
+      <c r="J35" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="K35" s="120"/>
-      <c r="L35" s="120"/>
-      <c r="M35" s="120"/>
-      <c r="N35" s="120"/>
+      <c r="K35" s="115"/>
+      <c r="L35" s="115"/>
+      <c r="M35" s="115"/>
+      <c r="N35" s="115"/>
       <c r="O35" s="31"/>
       <c r="P35" s="24"/>
       <c r="U35" s="24"/>
@@ -3765,8 +3815,8 @@
       <c r="AC35" s="24"/>
     </row>
     <row r="36" spans="1:62" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="98"/>
-      <c r="B36" s="99"/>
+      <c r="A36" s="112"/>
+      <c r="B36" s="113"/>
       <c r="C36" s="47" t="s">
         <v>13</v>
       </c>
@@ -3829,10 +3879,10 @@
       <c r="AC37" s="24"/>
     </row>
     <row r="38" spans="1:62" s="12" customFormat="1" ht="408.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="118" t="s">
+      <c r="A38" s="121" t="s">
         <v>75</v>
       </c>
-      <c r="B38" s="99" t="s">
+      <c r="B38" s="113" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="46" t="s">
@@ -3874,8 +3924,8 @@
       <c r="AC38" s="11"/>
     </row>
     <row r="39" spans="1:62" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="118"/>
-      <c r="B39" s="99"/>
+      <c r="A39" s="121"/>
+      <c r="B39" s="113"/>
       <c r="C39" s="45" t="s">
         <v>10</v>
       </c>
@@ -3916,8 +3966,8 @@
       <c r="AC39" s="24"/>
     </row>
     <row r="40" spans="1:62" ht="338.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="118"/>
-      <c r="B40" s="99"/>
+      <c r="A40" s="121"/>
+      <c r="B40" s="113"/>
       <c r="C40" s="45" t="s">
         <v>11</v>
       </c>
@@ -3956,8 +4006,8 @@
       <c r="AC40" s="24"/>
     </row>
     <row r="41" spans="1:62" ht="373.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="118"/>
-      <c r="B41" s="99"/>
+      <c r="A41" s="121"/>
+      <c r="B41" s="113"/>
       <c r="C41" s="45" t="s">
         <v>12</v>
       </c>
@@ -3997,8 +4047,8 @@
       <c r="AC41" s="24"/>
     </row>
     <row r="42" spans="1:62" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="118"/>
-      <c r="B42" s="99"/>
+      <c r="A42" s="121"/>
+      <c r="B42" s="113"/>
       <c r="C42" s="47" t="s">
         <v>13</v>
       </c>
@@ -4030,40 +4080,40 @@
       <c r="AC42" s="24"/>
     </row>
     <row r="43" spans="1:62" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="114"/>
-      <c r="B43" s="114"/>
-      <c r="C43" s="114"/>
-      <c r="D43" s="114"/>
-      <c r="E43" s="114"/>
-      <c r="F43" s="114"/>
-      <c r="G43" s="114"/>
-      <c r="H43" s="114"/>
-      <c r="I43" s="114"/>
-      <c r="J43" s="114"/>
-      <c r="K43" s="114"/>
-      <c r="L43" s="114"/>
-      <c r="M43" s="114"/>
-      <c r="N43" s="114"/>
+      <c r="A43" s="122"/>
+      <c r="B43" s="122"/>
+      <c r="C43" s="122"/>
+      <c r="D43" s="122"/>
+      <c r="E43" s="122"/>
+      <c r="F43" s="122"/>
+      <c r="G43" s="122"/>
+      <c r="H43" s="122"/>
+      <c r="I43" s="122"/>
+      <c r="J43" s="122"/>
+      <c r="K43" s="122"/>
+      <c r="L43" s="122"/>
+      <c r="M43" s="122"/>
+      <c r="N43" s="122"/>
     </row>
     <row r="44" spans="1:62" s="82" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="115" t="s">
+      <c r="A44" s="123" t="s">
         <v>76</v>
       </c>
-      <c r="B44" s="115"/>
-      <c r="C44" s="115"/>
-      <c r="D44" s="115"/>
-      <c r="E44" s="115"/>
-      <c r="F44" s="115"/>
-      <c r="G44" s="115"/>
-      <c r="H44" s="115"/>
-      <c r="I44" s="115"/>
-      <c r="J44" s="115"/>
-      <c r="K44" s="115"/>
-      <c r="L44" s="115"/>
-      <c r="M44" s="115"/>
-      <c r="N44" s="115"/>
-      <c r="O44" s="115"/>
-      <c r="P44" s="115"/>
+      <c r="B44" s="123"/>
+      <c r="C44" s="123"/>
+      <c r="D44" s="123"/>
+      <c r="E44" s="123"/>
+      <c r="F44" s="123"/>
+      <c r="G44" s="123"/>
+      <c r="H44" s="123"/>
+      <c r="I44" s="123"/>
+      <c r="J44" s="123"/>
+      <c r="K44" s="123"/>
+      <c r="L44" s="123"/>
+      <c r="M44" s="123"/>
+      <c r="N44" s="123"/>
+      <c r="O44" s="123"/>
+      <c r="P44" s="123"/>
       <c r="Q44" s="79"/>
       <c r="R44" s="79"/>
       <c r="S44" s="79"/>
@@ -4112,11 +4162,11 @@
       <c r="BJ44" s="80"/>
     </row>
     <row r="45" spans="1:62" s="34" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="116"/>
-      <c r="B45" s="116"/>
-      <c r="C45" s="116"/>
-      <c r="D45" s="116"/>
-      <c r="E45" s="116"/>
+      <c r="A45" s="124"/>
+      <c r="B45" s="124"/>
+      <c r="C45" s="124"/>
+      <c r="D45" s="124"/>
+      <c r="E45" s="124"/>
       <c r="F45" s="35"/>
       <c r="G45" s="36"/>
       <c r="H45" s="36"/>
@@ -4244,7 +4294,7 @@
   <dimension ref="A1:BJ48"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="26" zoomScaleNormal="32" zoomScaleSheetLayoutView="26" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+      <selection activeCell="D33" sqref="D33:N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -4266,72 +4316,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="158.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="101" t="s">
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="102"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="100"/>
       <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:29" ht="75.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="105"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="103"/>
       <c r="O2" s="7"/>
     </row>
     <row r="3" spans="1:29" ht="99" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="106" t="s">
+      <c r="D3" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="108"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="106"/>
       <c r="O3" s="9"/>
     </row>
     <row r="4" spans="1:29" ht="63" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="111" t="s">
+      <c r="C4" s="109" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="41" t="s">
@@ -4368,9 +4418,9 @@
       <c r="O4" s="9"/>
     </row>
     <row r="5" spans="1:29" s="12" customFormat="1" ht="149.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="110"/>
-      <c r="B5" s="110"/>
-      <c r="C5" s="112"/>
+      <c r="A5" s="108"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="110"/>
       <c r="D5" s="50" t="s">
         <v>29</v>
       </c>
@@ -4452,17 +4502,17 @@
       <c r="A7" s="70"/>
       <c r="B7" s="71"/>
       <c r="C7" s="71"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="113"/>
-      <c r="M7" s="113"/>
-      <c r="N7" s="113"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
       <c r="O7" s="22"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
@@ -4480,28 +4530,28 @@
       <c r="AC7" s="11"/>
     </row>
     <row r="8" spans="1:29" ht="408.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="113" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="119" t="s">
+      <c r="D8" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="120"/>
-      <c r="L8" s="120"/>
-      <c r="M8" s="120"/>
-      <c r="N8" s="121"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="116"/>
       <c r="O8" s="23"/>
       <c r="P8" s="24"/>
       <c r="Q8" s="24"/>
@@ -4519,24 +4569,24 @@
       <c r="AC8" s="24"/>
     </row>
     <row r="9" spans="1:29" ht="392.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="98"/>
-      <c r="B9" s="99"/>
+      <c r="A9" s="112"/>
+      <c r="B9" s="113"/>
       <c r="C9" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="119" t="s">
+      <c r="D9" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="121"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="115"/>
+      <c r="N9" s="116"/>
       <c r="O9" s="9"/>
       <c r="P9" s="24"/>
       <c r="Q9" s="24"/>
@@ -4550,8 +4600,8 @@
       <c r="AC9" s="24"/>
     </row>
     <row r="10" spans="1:29" ht="285" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="98"/>
-      <c r="B10" s="99"/>
+      <c r="A10" s="112"/>
+      <c r="B10" s="113"/>
       <c r="C10" s="45" t="s">
         <v>11</v>
       </c>
@@ -4583,8 +4633,8 @@
       <c r="AC10" s="24"/>
     </row>
     <row r="11" spans="1:29" ht="292.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="98"/>
-      <c r="B11" s="99"/>
+      <c r="A11" s="112"/>
+      <c r="B11" s="113"/>
       <c r="C11" s="45" t="s">
         <v>12</v>
       </c>
@@ -4612,8 +4662,8 @@
       <c r="AC11" s="24"/>
     </row>
     <row r="12" spans="1:29" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="98"/>
-      <c r="B12" s="99"/>
+      <c r="A12" s="112"/>
+      <c r="B12" s="113"/>
       <c r="C12" s="47" t="s">
         <v>13</v>
       </c>
@@ -4666,10 +4716,10 @@
       <c r="AC13" s="24"/>
     </row>
     <row r="14" spans="1:29" ht="378" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="98" t="s">
+      <c r="A14" s="112" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="99" t="s">
+      <c r="B14" s="113" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="46" t="s">
@@ -4711,8 +4761,8 @@
       <c r="AC14" s="24"/>
     </row>
     <row r="15" spans="1:29" ht="363" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="98"/>
-      <c r="B15" s="99"/>
+      <c r="A15" s="112"/>
+      <c r="B15" s="113"/>
       <c r="C15" s="45" t="s">
         <v>10</v>
       </c>
@@ -4757,8 +4807,8 @@
       <c r="AC15" s="24"/>
     </row>
     <row r="16" spans="1:29" ht="366" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="98"/>
-      <c r="B16" s="99"/>
+      <c r="A16" s="112"/>
+      <c r="B16" s="113"/>
       <c r="C16" s="45" t="s">
         <v>11</v>
       </c>
@@ -4810,8 +4860,8 @@
       <c r="AC16" s="24"/>
     </row>
     <row r="17" spans="1:29" ht="342" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="98"/>
-      <c r="B17" s="99"/>
+      <c r="A17" s="112"/>
+      <c r="B17" s="113"/>
       <c r="C17" s="45" t="s">
         <v>12</v>
       </c>
@@ -4822,9 +4872,7 @@
         <v>58</v>
       </c>
       <c r="F17" s="39"/>
-      <c r="G17" s="83" t="s">
-        <v>52</v>
-      </c>
+      <c r="G17"/>
       <c r="H17" s="84" t="s">
         <v>84</v>
       </c>
@@ -4857,8 +4905,8 @@
       <c r="AC17" s="24"/>
     </row>
     <row r="18" spans="1:29" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="98"/>
-      <c r="B18" s="99"/>
+      <c r="A18" s="112"/>
+      <c r="B18" s="113"/>
       <c r="C18" s="47" t="s">
         <v>13</v>
       </c>
@@ -4920,10 +4968,10 @@
       <c r="AC19" s="24"/>
     </row>
     <row r="20" spans="1:29" ht="408.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="98" t="s">
+      <c r="A20" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="99" t="s">
+      <c r="B20" s="113" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="46" t="s">
@@ -4959,8 +5007,8 @@
       <c r="AC20" s="24"/>
     </row>
     <row r="21" spans="1:29" ht="408.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="98"/>
-      <c r="B21" s="99"/>
+      <c r="A21" s="112"/>
+      <c r="B21" s="113"/>
       <c r="C21" s="46" t="s">
         <v>10</v>
       </c>
@@ -4979,7 +5027,7 @@
       </c>
       <c r="I21" s="58"/>
       <c r="J21" s="126" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="K21" s="127"/>
       <c r="L21" s="127"/>
@@ -4997,8 +5045,8 @@
       <c r="AC21" s="24"/>
     </row>
     <row r="22" spans="1:29" ht="395.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="98"/>
-      <c r="B22" s="99"/>
+      <c r="A22" s="112"/>
+      <c r="B22" s="113"/>
       <c r="C22" s="45" t="s">
         <v>11</v>
       </c>
@@ -5029,8 +5077,8 @@
       <c r="AC22" s="24"/>
     </row>
     <row r="23" spans="1:29" ht="402" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="98"/>
-      <c r="B23" s="99"/>
+      <c r="A23" s="112"/>
+      <c r="B23" s="113"/>
       <c r="C23" s="45" t="s">
         <v>12</v>
       </c>
@@ -5063,8 +5111,8 @@
       <c r="AC23" s="24"/>
     </row>
     <row r="24" spans="1:29" ht="244.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="98"/>
-      <c r="B24" s="99"/>
+      <c r="A24" s="112"/>
+      <c r="B24" s="113"/>
       <c r="C24" s="47" t="s">
         <v>13</v>
       </c>
@@ -5128,10 +5176,10 @@
       <c r="AC25" s="24"/>
     </row>
     <row r="26" spans="1:29" s="12" customFormat="1" ht="373.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="98" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" s="117" t="s">
+      <c r="A26" s="112" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="120" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="46" t="s">
@@ -5154,7 +5202,7 @@
         <v>83</v>
       </c>
       <c r="L26" s="84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M26" s="95" t="s">
         <v>42</v>
@@ -5179,15 +5227,15 @@
       <c r="AC26" s="11"/>
     </row>
     <row r="27" spans="1:29" ht="372" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="98"/>
-      <c r="B27" s="117"/>
+      <c r="A27" s="112"/>
+      <c r="B27" s="120"/>
       <c r="C27" s="45" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="85"/>
       <c r="E27" s="39"/>
       <c r="F27" s="83" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G27" s="83" t="s">
         <v>56</v>
@@ -5209,7 +5257,7 @@
         <v>49</v>
       </c>
       <c r="N27" s="84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O27" s="28"/>
       <c r="P27" s="24"/>
@@ -5223,13 +5271,13 @@
       <c r="AC27" s="24"/>
     </row>
     <row r="28" spans="1:29" ht="408" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="98"/>
-      <c r="B28" s="117"/>
+      <c r="A28" s="112"/>
+      <c r="B28" s="120"/>
       <c r="C28" s="45" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="83" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E28" s="84" t="s">
         <v>84</v>
@@ -5266,8 +5314,8 @@
       <c r="AC28" s="24"/>
     </row>
     <row r="29" spans="1:29" ht="330" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="98"/>
-      <c r="B29" s="117"/>
+      <c r="A29" s="112"/>
+      <c r="B29" s="120"/>
       <c r="C29" s="45" t="s">
         <v>12</v>
       </c>
@@ -5306,8 +5354,8 @@
       <c r="AC29" s="24"/>
     </row>
     <row r="30" spans="1:29" ht="247.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="98"/>
-      <c r="B30" s="117"/>
+      <c r="A30" s="112"/>
+      <c r="B30" s="120"/>
       <c r="C30" s="47" t="s">
         <v>13</v>
       </c>
@@ -5372,17 +5420,17 @@
       <c r="AC31" s="24"/>
     </row>
     <row r="32" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="98" t="s">
-        <v>93</v>
-      </c>
-      <c r="B32" s="99" t="s">
+      <c r="A32" s="112" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="113" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="46" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="125" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E32" s="125"/>
       <c r="F32" s="125"/>
@@ -5410,13 +5458,13 @@
       <c r="AC32" s="24"/>
     </row>
     <row r="33" spans="1:62" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="98"/>
-      <c r="B33" s="99"/>
+      <c r="A33" s="112"/>
+      <c r="B33" s="113"/>
       <c r="C33" s="45" t="s">
         <v>10</v>
       </c>
       <c r="D33" s="125" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E33" s="125"/>
       <c r="F33" s="125"/>
@@ -5440,13 +5488,13 @@
       <c r="AC33" s="24"/>
     </row>
     <row r="34" spans="1:62" ht="254.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="98"/>
-      <c r="B34" s="99"/>
+      <c r="A34" s="112"/>
+      <c r="B34" s="113"/>
       <c r="C34" s="45" t="s">
         <v>11</v>
       </c>
       <c r="D34" s="126" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E34" s="127"/>
       <c r="F34" s="127"/>
@@ -5474,18 +5522,18 @@
       <c r="AC34" s="24"/>
     </row>
     <row r="35" spans="1:62" ht="315" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="98"/>
-      <c r="B35" s="99"/>
+      <c r="A35" s="112"/>
+      <c r="B35" s="113"/>
       <c r="C35" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="119" t="s">
-        <v>97</v>
-      </c>
-      <c r="E35" s="120"/>
-      <c r="F35" s="120"/>
-      <c r="G35" s="120"/>
-      <c r="H35" s="120"/>
+      <c r="D35" s="114" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="115"/>
+      <c r="F35" s="115"/>
+      <c r="G35" s="115"/>
+      <c r="H35" s="115"/>
       <c r="I35" s="56"/>
       <c r="J35" s="40"/>
       <c r="K35" s="40"/>
@@ -5507,8 +5555,8 @@
       <c r="AC35" s="24"/>
     </row>
     <row r="36" spans="1:62" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="98"/>
-      <c r="B36" s="99"/>
+      <c r="A36" s="112"/>
+      <c r="B36" s="113"/>
       <c r="C36" s="47" t="s">
         <v>13</v>
       </c>
@@ -5570,10 +5618,10 @@
       <c r="AC37" s="24"/>
     </row>
     <row r="38" spans="1:62" s="12" customFormat="1" ht="354" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="118" t="s">
-        <v>98</v>
-      </c>
-      <c r="B38" s="99" t="s">
+      <c r="A38" s="121" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="113" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="46" t="s">
@@ -5615,8 +5663,8 @@
       <c r="AC38" s="11"/>
     </row>
     <row r="39" spans="1:62" ht="354.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="118"/>
-      <c r="B39" s="99"/>
+      <c r="A39" s="121"/>
+      <c r="B39" s="113"/>
       <c r="C39" s="45" t="s">
         <v>10</v>
       </c>
@@ -5660,8 +5708,8 @@
       <c r="AC39" s="24"/>
     </row>
     <row r="40" spans="1:62" ht="338.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="118"/>
-      <c r="B40" s="99"/>
+      <c r="A40" s="121"/>
+      <c r="B40" s="113"/>
       <c r="C40" s="45" t="s">
         <v>11</v>
       </c>
@@ -5706,8 +5754,8 @@
       <c r="AC40" s="24"/>
     </row>
     <row r="41" spans="1:62" ht="373.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="118"/>
-      <c r="B41" s="99"/>
+      <c r="A41" s="121"/>
+      <c r="B41" s="113"/>
       <c r="C41" s="45" t="s">
         <v>12</v>
       </c>
@@ -5749,8 +5797,8 @@
       <c r="AC41" s="24"/>
     </row>
     <row r="42" spans="1:62" ht="230.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="118"/>
-      <c r="B42" s="99"/>
+      <c r="A42" s="121"/>
+      <c r="B42" s="113"/>
       <c r="C42" s="47" t="s">
         <v>13</v>
       </c>
@@ -5783,40 +5831,40 @@
       <c r="AC42" s="24"/>
     </row>
     <row r="43" spans="1:62" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="114"/>
-      <c r="B43" s="114"/>
-      <c r="C43" s="114"/>
-      <c r="D43" s="114"/>
-      <c r="E43" s="114"/>
-      <c r="F43" s="114"/>
-      <c r="G43" s="114"/>
-      <c r="H43" s="114"/>
-      <c r="I43" s="114"/>
-      <c r="J43" s="114"/>
-      <c r="K43" s="114"/>
-      <c r="L43" s="114"/>
-      <c r="M43" s="114"/>
-      <c r="N43" s="114"/>
+      <c r="A43" s="122"/>
+      <c r="B43" s="122"/>
+      <c r="C43" s="122"/>
+      <c r="D43" s="122"/>
+      <c r="E43" s="122"/>
+      <c r="F43" s="122"/>
+      <c r="G43" s="122"/>
+      <c r="H43" s="122"/>
+      <c r="I43" s="122"/>
+      <c r="J43" s="122"/>
+      <c r="K43" s="122"/>
+      <c r="L43" s="122"/>
+      <c r="M43" s="122"/>
+      <c r="N43" s="122"/>
     </row>
     <row r="44" spans="1:62" s="82" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="115" t="s">
-        <v>99</v>
-      </c>
-      <c r="B44" s="115"/>
-      <c r="C44" s="115"/>
-      <c r="D44" s="115"/>
-      <c r="E44" s="115"/>
-      <c r="F44" s="115"/>
-      <c r="G44" s="115"/>
-      <c r="H44" s="115"/>
-      <c r="I44" s="115"/>
-      <c r="J44" s="115"/>
-      <c r="K44" s="115"/>
-      <c r="L44" s="115"/>
-      <c r="M44" s="115"/>
-      <c r="N44" s="115"/>
-      <c r="O44" s="115"/>
-      <c r="P44" s="115"/>
+      <c r="A44" s="123" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="123"/>
+      <c r="C44" s="123"/>
+      <c r="D44" s="123"/>
+      <c r="E44" s="123"/>
+      <c r="F44" s="123"/>
+      <c r="G44" s="123"/>
+      <c r="H44" s="123"/>
+      <c r="I44" s="123"/>
+      <c r="J44" s="123"/>
+      <c r="K44" s="123"/>
+      <c r="L44" s="123"/>
+      <c r="M44" s="123"/>
+      <c r="N44" s="123"/>
+      <c r="O44" s="123"/>
+      <c r="P44" s="123"/>
       <c r="Q44" s="79"/>
       <c r="R44" s="79"/>
       <c r="S44" s="79"/>
@@ -5865,11 +5913,11 @@
       <c r="BJ44" s="80"/>
     </row>
     <row r="45" spans="1:62" s="34" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="116"/>
-      <c r="B45" s="116"/>
-      <c r="C45" s="116"/>
-      <c r="D45" s="116"/>
-      <c r="E45" s="116"/>
+      <c r="A45" s="124"/>
+      <c r="B45" s="124"/>
+      <c r="C45" s="124"/>
+      <c r="D45" s="124"/>
+      <c r="E45" s="124"/>
       <c r="F45" s="35"/>
       <c r="G45" s="36"/>
       <c r="H45" s="36"/>
